--- a/MotorApp/Uploads/DomesticBulkUpload.xlsx
+++ b/MotorApp/Uploads/DomesticBulkUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\reneedsampledataforbulkupload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F601874-F329-4649-B7EC-A6DBECD454AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816011F-684C-4B35-AFEC-F7D9AEAC9013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F693EBED-78B3-4B00-A6CA-349B5148FA80}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>DraftNo</t>
   </si>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +275,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +597,7 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,8 +788,8 @@
       <c r="J2" s="2">
         <v>44019.581944444442</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>42</v>
+      <c r="K2" s="3">
+        <v>15</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -863,7 +866,7 @@
       <c r="AJ2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="7">
         <v>46456456456</v>
       </c>
       <c r="AL2" s="3" t="s">

--- a/MotorApp/Uploads/DomesticBulkUpload.xlsx
+++ b/MotorApp/Uploads/DomesticBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\fdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816011F-684C-4B35-AFEC-F7D9AEAC9013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ABF561-FDE4-4B70-A980-AF1CC2630487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F693EBED-78B3-4B00-A6CA-349B5148FA80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F693EBED-78B3-4B00-A6CA-349B5148FA80}"/>
   </bookViews>
   <sheets>
     <sheet name="DomesticBulkUpload" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="140">
   <si>
     <t>DraftNo</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Q/004/01/20/2402/00001</t>
   </si>
   <si>
-    <t>P/004/01/20/2402/00001</t>
-  </si>
-  <si>
     <t>HeadOffice</t>
   </si>
   <si>
@@ -174,20 +171,293 @@
     <t>Asraha</t>
   </si>
   <si>
-    <t>Na</t>
-  </si>
-  <si>
     <t>Abdul</t>
   </si>
   <si>
     <t>Aariq</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00002</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00003</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00004</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00005</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00006</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00007</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00008</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00009</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00010</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00011</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00012</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00013</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00014</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00015</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00016</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00017</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00018</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00019</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00020</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00021</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00022</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00023</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00024</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00025</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00026</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00027</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00028</t>
+  </si>
+  <si>
+    <t>Q/004/01/20/2402/00029</t>
+  </si>
+  <si>
+    <t>Veesham</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00001</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00002</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00003</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00004</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00005</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00006</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00007</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00008</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00009</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00010</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00011</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00012</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00013</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00014</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00015</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00016</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00017</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00018</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00019</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00025</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00026</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00027</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00028</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2403/00029</t>
+  </si>
+  <si>
+    <t>BA0007 - C.E. HEATH &amp; PARTNERS L.L.C.</t>
+  </si>
+  <si>
+    <t>SH005 - Mr.Ghaith AL-Maghribi</t>
+  </si>
+  <si>
+    <t>SH006 - Ms.Tahani Abdullah Al Najadi</t>
+  </si>
+  <si>
+    <t>SH007 - Ms.Ahad Ali Al Wahaibi</t>
+  </si>
+  <si>
+    <t>SH008 - Ms.Israa Zayid Khalifa Al Kindi</t>
+  </si>
+  <si>
+    <t>BA0025 - Klaah Al Malada Trad. &amp; Cont</t>
+  </si>
+  <si>
+    <t>BA0026 - Safety City Trading LLC</t>
+  </si>
+  <si>
+    <t>BA0057 - M/S TOWEL AUTO CENTRE L.L.C</t>
+  </si>
+  <si>
+    <t>BA0058 - M/S CRESENT GLOBAL</t>
+  </si>
+  <si>
+    <t>BA0059 - UNITED FINANCE COMPANY</t>
+  </si>
+  <si>
+    <t>BA0060 - ORYX INSURANCE SERVICES LLC</t>
+  </si>
+  <si>
+    <t>BA0061 - FIRST POLICY INSURANCE SERVICES</t>
+  </si>
+  <si>
+    <t>BA0062 - High Capacity Trading LLC</t>
+  </si>
+  <si>
+    <t>BA0063 - PWS GULF LLC</t>
+  </si>
+  <si>
+    <t>BA0123 - WABAS AL ALMIYAH</t>
+  </si>
+  <si>
+    <t>BA9988 - NIZWA WINDOW TRAD &amp; CONT LLC</t>
+  </si>
+  <si>
+    <t>BA9989 - HOWDEN INSURANCE BROKERS LLC</t>
+  </si>
+  <si>
+    <t>BA9990 - AL HAYAH INSURANCE SERVICES LLC</t>
+  </si>
+  <si>
+    <t>CSH001 - Cash Customers-HO</t>
+  </si>
+  <si>
+    <t>CSH002 - Cash Customers-Salalah</t>
+  </si>
+  <si>
+    <t>CSH003 - Cash Customers-Sohar</t>
+  </si>
+  <si>
+    <t>CSH004 - Cash Customers-Nizwa</t>
+  </si>
+  <si>
+    <t>CSH005 - Cash Customers-Seeb</t>
+  </si>
+  <si>
+    <t>CSH006 - Cash Customers-SQU</t>
+  </si>
+  <si>
+    <t>ME0001 - Naveed Shafi</t>
+  </si>
+  <si>
+    <t>ME0002 - Abdul Khaliq Abdul Rahman</t>
+  </si>
+  <si>
+    <t>ME0003 - Ranganathan Chakrapani</t>
+  </si>
+  <si>
+    <t>ME0004 - Fayaz Ahmed</t>
+  </si>
+  <si>
+    <t>SH001 - Ms.Kothar AL-Zadjali</t>
+  </si>
+  <si>
+    <t>P/004/02/20/2403/00020</t>
+  </si>
+  <si>
+    <t>P/004/03/20/2403/00021</t>
+  </si>
+  <si>
+    <t>P/004/04/20/2403/00022</t>
+  </si>
+  <si>
+    <t>P/004/05/20/2403/00023</t>
+  </si>
+  <si>
+    <t>P/004/06/20/2403/00024</t>
+  </si>
+  <si>
+    <t>salalah</t>
+  </si>
+  <si>
+    <t>Sohar</t>
+  </si>
+  <si>
+    <t>nizwa</t>
+  </si>
+  <si>
+    <t>Seeb</t>
+  </si>
+  <si>
+    <t>Squ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +484,20 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +563,13 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,54 +885,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1295A0-E788-422E-A2F5-73CB03AD4406}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,33 +1048,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8">
+        <v>44019.581944444442</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44019.581944444442</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>44019.581944444442</v>
       </c>
-      <c r="F2" s="2">
-        <v>44384.581944444442</v>
+      <c r="F2" s="8">
+        <v>44050.999305555553</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="J2" s="2">
         <v>44019.581944444442</v>
@@ -798,7 +1089,7 @@
         <v>5000</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3">
         <v>254212</v>
@@ -810,7 +1101,7 @@
         <v>254212</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S2" s="3">
         <v>5212115</v>
@@ -822,10 +1113,10 @@
         <v>5254542</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X2" s="2">
         <v>22834.581944444446</v>
@@ -837,16 +1128,16 @@
         <v>5421245</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="3">
         <v>654212</v>
@@ -855,7 +1146,7 @@
         <v>242422</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH2" s="3">
         <v>212451212</v>
@@ -864,16 +1155,3265 @@
         <v>7845121</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK2" s="7">
         <v>46456456456</v>
       </c>
       <c r="AL2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44050.581250000003</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44019.581944444442</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44051.999305555553</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44019.581944444442</v>
+      </c>
+      <c r="K3" s="3">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="O3" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T3" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U3" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44081.580555613429</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44052.999305497688</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K4" s="3">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T4" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44111.579861226855</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44053.999305497688</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K5" s="3">
+        <v>15</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T5" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U5" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44142.579166840274</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44054.999305497688</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K6" s="3">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T6" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U6" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44142.579166840274</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44055.999305497688</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K7" s="3">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T7" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U7" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F8" s="8">
+        <v>43623.999305555553</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K8" s="3">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T8" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U8" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F9" s="8">
+        <v>43623.999305555553</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K9" s="3">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T9" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U9" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K10" s="3">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T10" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U10" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K11" s="3">
+        <v>15</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T11" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U11" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F12" s="8">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K12" s="3">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T12" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U12" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F13" s="8">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K13" s="3">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T13" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U13" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F14" s="8">
+        <v>44081.999305555553</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K14" s="3">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T14" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U14" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F15" s="8">
+        <v>44083.999305555553</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K15" s="3">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T15" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U15" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F16" s="8">
+        <v>44085.999305497688</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K16" s="3">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T16" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U16" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F17" s="8">
+        <v>44087.999305497688</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K17" s="3">
+        <v>15</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T17" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U17" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F18" s="8">
+        <v>44089.999305497688</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K18" s="3">
+        <v>15</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T18" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U18" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F19" s="8">
+        <v>44091.999305497688</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K19" s="3">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T19" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U19" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F20" s="8">
+        <v>44093.999305497688</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K20" s="3">
+        <v>15</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T20" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U20" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F21" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K21" s="3">
+        <v>15</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T21" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U21" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F22" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K22" s="3">
+        <v>15</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T22" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U22" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F23" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K23" s="3">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T23" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U23" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK23" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F24" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K24" s="3">
+        <v>15</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T24" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U24" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F25" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K25" s="3">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T25" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U25" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F26" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K26" s="3">
+        <v>15</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T26" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U26" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK26" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F27" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K27" s="3">
+        <v>15</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T27" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U27" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK27" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F28" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K28" s="3">
+        <v>15</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T28" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U28" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK28" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F29" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K29" s="3">
+        <v>15</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T29" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U29" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK29" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="F30" s="8">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44019.581944386577</v>
+      </c>
+      <c r="K30" s="3">
+        <v>15</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="3">
+        <v>254212</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>254212</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="3">
+        <v>5212115</v>
+      </c>
+      <c r="T30" s="3">
+        <v>64644</v>
+      </c>
+      <c r="U30" s="3">
+        <v>5254542</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="2">
+        <v>22834.581944444446</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>53</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>5421245</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>654212</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>242422</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>212451212</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>7845121</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK30" s="7">
+        <v>46456456456</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
